--- a/dumps/Stocks/Tata Motors Passenger Vehicles Limited.xlsx
+++ b/dumps/Stocks/Tata Motors Passenger Vehicles Limited.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46059</v>
+        <v>45722</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -590,18 +590,15 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>373.9</v>
+        <v>441.69</v>
       </c>
       <c r="F5" t="n">
-        <v>3757.7</v>
+        <v>4416.9</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>18.7</v>
+          <t>~</t>
+        </is>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -610,7 +607,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46050</v>
+        <v>45734</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -623,21 +620,18 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>339.9</v>
+        <v>469.7</v>
       </c>
       <c r="F6" t="n">
-        <v>3416</v>
+        <v>2348.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611091662</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
+          <t>~</t>
+        </is>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -646,7 +640,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46049</v>
+        <v>45811</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -659,21 +653,18 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>339.1</v>
+        <v>493.58</v>
       </c>
       <c r="F7" t="n">
-        <v>3408</v>
+        <v>2467.9</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>17</v>
+          <t>~</t>
+        </is>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -682,7 +673,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46034</v>
+        <v>45947</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -695,21 +686,18 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>352.65</v>
+        <v>400.62</v>
       </c>
       <c r="F8" t="n">
-        <v>3544.1</v>
+        <v>8012.4</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>17.6</v>
+          <t>~</t>
+        </is>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -718,7 +706,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46030</v>
+        <v>45950</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -734,18 +722,15 @@
         <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>364.45</v>
+        <v>401.57</v>
       </c>
       <c r="F9" t="n">
-        <v>3662.7</v>
+        <v>4015.7</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CN#252610347614</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>18.2</v>
+          <t>~</t>
+        </is>
       </c>
       <c r="J9">
         <f>Index!$C$2</f>
@@ -754,7 +739,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46027</v>
+        <v>46059</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -770,18 +755,18 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>370.35</v>
+        <v>373.9</v>
       </c>
       <c r="F10" t="n">
-        <v>3722</v>
+        <v>3757.7</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CN#252610159828</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="J10">
         <f>Index!$C$2</f>
@@ -790,7 +775,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46020</v>
+        <v>46050</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -806,20 +791,200 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
+        <v>339.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3416</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>CN#252611091662</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>46049</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>339.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3408</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CN#252611030591</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>352.65</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3544.1</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>CN#252610469431</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J13">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>364.45</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3662.7</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>CN#252610347614</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J14">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>370.35</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3722</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>CN#252610159828</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J15">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>46020</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
         <v>359.05</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F16" t="n">
         <v>3608.5</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>CN#252609871125</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="I16" t="n">
         <v>18</v>
       </c>
-      <c r="J11">
+      <c r="J16">
         <f>Index!$C$2</f>
         <v/>
       </c>
